--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W4.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="181">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>HungNMHE1512110</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1178,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1257,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1336,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1415,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1778,25 +1781,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1819,7 +1822,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1828,7 +1831,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1837,7 +1840,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1846,7 +1849,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1855,7 +1858,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1864,7 +1867,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1892,47 +1895,47 @@
       <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>74</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>77</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>78</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>79</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>80</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>81</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>82</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>86</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>87</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>88</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>90</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>91</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>92</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>93</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>94</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>151</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>152</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>153</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>154</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>155</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>156</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>158</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>171</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>172</v>
       </c>
@@ -3065,47 +3068,47 @@
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="23" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="23" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="23"/>
+    <col min="1" max="1" width="4.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="23" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="23" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3183,7 +3186,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3208,7 +3211,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3233,7 +3236,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3258,7 +3261,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3283,7 +3286,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3339,46 +3342,46 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3430,7 +3433,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3455,7 +3458,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3480,7 +3483,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3505,7 +3508,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3533,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3555,7 +3558,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3580,7 +3583,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3634,46 +3637,46 @@
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3724,7 +3727,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3752,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3774,7 +3777,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3799,7 +3802,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3824,7 +3827,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3874,7 +3877,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3899,7 +3902,7 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -3924,7 +3927,7 @@
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -3949,7 +3952,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -3974,7 +3977,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -3999,7 +4002,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -4024,7 +4027,7 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -4049,7 +4052,7 @@
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
@@ -4098,51 +4101,51 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -4193,7 +4196,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -4218,7 +4221,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -4243,7 +4246,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -4268,7 +4271,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -4293,7 +4296,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -4318,7 +4321,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -4341,9 +4344,11 @@
       <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -4368,7 +4373,7 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -4393,7 +4398,7 @@
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -4418,7 +4423,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -4443,7 +4448,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -4468,7 +4473,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -4493,7 +4498,7 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -4518,7 +4523,7 @@
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W4.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C0C36A-EA60-4027-91BB-2EB325190096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F67AD-16BC-44FB-94FA-92E97E56C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,10 @@
     <sheet name="Iteration 4" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Iteration 4'!$A$8:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Iteration 4'!$A$8:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="181">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Reset Password</t>
-  </si>
-  <si>
-    <t>Change Password</t>
   </si>
   <si>
     <t>User Profile</t>
@@ -400,12 +397,6 @@
  - Note that the link is only available for a specific time duration as configured in the system config file.</t>
   </si>
   <si>
-    <t>This is a pop-up screen which allows the user to change his/her password by inputting his current password as well as new password (twice)</t>
-  </si>
-  <si>
-    <t>This is a pop-up screen which allows the user to edit his/her profile information, including the registered ones &amp; the avatar image. Please note that s/he is not allowed to change the email</t>
-  </si>
-  <si>
     <t>Implementation of authorization mechanism in the system, including the specify the role of logged-in user, his/her authorized page links (building the displayed menu items (in the front end) and preventing unauthorized access via enter the links directly)</t>
   </si>
   <si>
@@ -660,6 +651,15 @@
   </si>
   <si>
     <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>This is a pop-up screen which allows the user to edit his/her profile information, including the account info &amp; the avatar image. Please note that s/he is not allowed to change the email and user name.</t>
+  </si>
+  <si>
+    <t>This is a screen which allows the user to view his/her profile information, including the account info &amp; the avatar image</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +837,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFF7CAAC"/>
       </patternFill>
     </fill>
   </fills>
@@ -868,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +996,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1821,8 +1830,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1890,7 +1899,7 @@
     </row>
     <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>10</v>
@@ -1906,15 +1915,15 @@
         <v>240</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>12</v>
@@ -1930,15 +1939,15 @@
         <v>60</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>13</v>
@@ -1954,15 +1963,15 @@
         <v>120</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>39</v>
@@ -1978,45 +1987,45 @@
         <v>60</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="38">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>1</v>
@@ -2026,15 +2035,15 @@
         <v>60</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>14</v>
@@ -2050,21 +2059,21 @@
         <v>60</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>2</v>
@@ -2074,21 +2083,21 @@
         <v>120</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>3</v>
@@ -2098,18 +2107,18 @@
         <v>240</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>19</v>
@@ -2122,15 +2131,15 @@
         <v>60</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>18</v>
@@ -2146,15 +2155,15 @@
         <v>60</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>15</v>
@@ -2170,15 +2179,15 @@
         <v>60</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>20</v>
@@ -2194,18 +2203,18 @@
         <v>240</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>19</v>
@@ -2218,18 +2227,18 @@
         <v>120</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>19</v>
@@ -2242,15 +2251,15 @@
         <v>240</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>33</v>
@@ -2266,15 +2275,15 @@
         <v>60</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>34</v>
@@ -2290,21 +2299,21 @@
         <v>120</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>2</v>
@@ -2314,21 +2323,21 @@
         <v>120</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>1</v>
@@ -2338,18 +2347,18 @@
         <v>60</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>11</v>
@@ -2362,18 +2371,18 @@
         <v>120</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>11</v>
@@ -2386,18 +2395,18 @@
         <v>60</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>11</v>
@@ -2410,15 +2419,15 @@
         <v>120</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>16</v>
@@ -2434,18 +2443,18 @@
         <v>240</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>11</v>
@@ -2458,18 +2467,18 @@
         <v>240</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>19</v>
@@ -2482,21 +2491,21 @@
         <v>240</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>1</v>
@@ -2506,21 +2515,21 @@
         <v>60</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>2</v>
@@ -2530,21 +2539,21 @@
         <v>120</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>1</v>
@@ -2554,21 +2563,21 @@
         <v>60</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>1</v>
@@ -2578,21 +2587,21 @@
         <v>60</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>2</v>
@@ -2602,15 +2611,15 @@
         <v>120</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="37" t="s">
         <v>33</v>
@@ -2626,15 +2635,15 @@
         <v>120</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>34</v>
@@ -2650,15 +2659,15 @@
         <v>120</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>35</v>
@@ -2674,15 +2683,15 @@
         <v>60</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>36</v>
@@ -2698,15 +2707,15 @@
         <v>120</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>37</v>
@@ -2722,15 +2731,15 @@
         <v>60</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>38</v>
@@ -2746,21 +2755,21 @@
         <v>60</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>2</v>
@@ -2770,21 +2779,21 @@
         <v>120</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>2</v>
@@ -2794,21 +2803,21 @@
         <v>120</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>1</v>
@@ -2818,21 +2827,21 @@
         <v>60</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>157</v>
-      </c>
       <c r="C48" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>2</v>
@@ -2842,21 +2851,21 @@
         <v>120</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="41" t="s">
         <v>1</v>
@@ -2866,21 +2875,21 @@
         <v>60</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="41" t="s">
         <v>1</v>
@@ -2890,18 +2899,18 @@
         <v>60</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>11</v>
@@ -2914,21 +2923,21 @@
         <v>60</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="41" t="s">
         <v>1</v>
@@ -2938,21 +2947,21 @@
         <v>60</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="41" t="s">
         <v>2</v>
@@ -2962,10 +2971,10 @@
         <v>120</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2995,7 +3004,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3075,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
@@ -3082,18 +3091,18 @@
         <v>60</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>13</v>
@@ -3109,16 +3118,16 @@
         <v>120</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3134,16 +3143,16 @@
         <v>240</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>38</v>
@@ -3159,19 +3168,19 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>19</v>
@@ -3184,16 +3193,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>33</v>
@@ -3209,16 +3218,16 @@
         <v>60</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>35</v>
@@ -3234,17 +3243,17 @@
         <v>60</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -3269,7 +3278,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,9 +3333,8 @@
       <c r="D8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21">
-        <f ca="1">IF(E8="Complex", 240, IF(D15="Medium",120,60))</f>
-        <v>0</v>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>22</v>
@@ -3340,7 +3348,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>15</v>
@@ -3351,21 +3359,21 @@
       <c r="D9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="46">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>16</v>
@@ -3376,21 +3384,21 @@
       <c r="D10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="46">
         <f t="shared" ref="E10:E16" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>37</v>
@@ -3401,24 +3409,24 @@
       <c r="D11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="46">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>11</v>
@@ -3426,71 +3434,71 @@
       <c r="D12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="46">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="21">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>145</v>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="46">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>20</v>
@@ -3501,24 +3509,24 @@
       <c r="D15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="46">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
@@ -3526,15 +3534,15 @@
       <c r="D16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="46">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H16" s="26"/>
     </row>
@@ -3564,7 +3572,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3634,7 +3642,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>36</v>
@@ -3650,22 +3658,22 @@
         <v>120</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>2</v>
@@ -3675,7 +3683,7 @@
         <v>120</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>29</v>
@@ -3684,13 +3692,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>3</v>
@@ -3700,7 +3708,7 @@
         <v>240</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>29</v>
@@ -3709,7 +3717,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>18</v>
@@ -3725,16 +3733,16 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>34</v>
@@ -3750,22 +3758,22 @@
         <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
@@ -3774,8 +3782,8 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>139</v>
+      <c r="F14" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>29</v>
@@ -3784,13 +3792,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>1</v>
@@ -3800,7 +3808,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>29</v>
@@ -3809,10 +3817,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>11</v>
@@ -3825,7 +3833,7 @@
         <v>120</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>29</v>
@@ -3834,10 +3842,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>11</v>
@@ -3850,7 +3858,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>29</v>
@@ -3859,10 +3867,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
@@ -3875,22 +3883,22 @@
         <v>240</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>1</v>
@@ -3900,22 +3908,22 @@
         <v>60</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>1</v>
@@ -3925,22 +3933,22 @@
         <v>60</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>2</v>
@@ -3950,22 +3958,22 @@
         <v>120</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>1</v>
@@ -3975,22 +3983,22 @@
         <v>60</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>1</v>
@@ -4000,10 +4008,10 @@
         <v>60</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -4043,7 +4051,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4113,7 +4121,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>33</v>
@@ -4129,7 +4137,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>29</v>
@@ -4138,7 +4146,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>39</v>
@@ -4153,8 +4161,8 @@
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>139</v>
+      <c r="F10" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>29</v>
@@ -4163,10 +4171,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>19</v>
@@ -4179,7 +4187,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>29</v>
@@ -4188,10 +4196,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
@@ -4204,7 +4212,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>29</v>
@@ -4213,10 +4221,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -4229,7 +4237,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>29</v>
@@ -4238,10 +4246,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
@@ -4254,7 +4262,7 @@
         <v>240</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>29</v>
@@ -4263,13 +4271,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>1</v>
@@ -4279,7 +4287,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>29</v>
@@ -4288,7 +4296,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>14</v>
@@ -4304,7 +4312,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>29</v>
@@ -4313,13 +4321,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>1</v>
@@ -4329,7 +4337,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>29</v>
@@ -4338,13 +4346,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>2</v>
@@ -4354,7 +4362,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>29</v>
@@ -4363,10 +4371,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>11</v>
@@ -4379,7 +4387,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>29</v>
@@ -4388,13 +4396,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>1</v>
@@ -4404,7 +4412,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>29</v>
@@ -4413,13 +4421,13 @@
     </row>
     <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>1</v>
@@ -4429,7 +4437,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>29</v>
@@ -4438,13 +4446,13 @@
     </row>
     <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>2</v>
@@ -4454,7 +4462,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>29</v>
@@ -4463,13 +4471,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>2</v>
@@ -4479,7 +4487,7 @@
         <v>120</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>29</v>
@@ -4487,7 +4495,7 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
